--- a/bug.xlsx
+++ b/bug.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C76FBC8D-78FA-4AC4-941E-08FD285BB0D7}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69F761F5-E5A8-4B75-B5C4-B7F19F45FFF7}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -390,10 +390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -442,6 +442,20 @@
         <v>9</v>
       </c>
     </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>23123</v>
+      </c>
+      <c r="B4">
+        <v>31231</v>
+      </c>
+      <c r="C4">
+        <v>3231</v>
+      </c>
+      <c r="D4">
+        <v>2312</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/bug.xlsx
+++ b/bug.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69F761F5-E5A8-4B75-B5C4-B7F19F45FFF7}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{601D90B9-1BC0-4B01-AB08-996A55A014CE}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,6 +59,14 @@
   </si>
   <si>
     <t>abcd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jgkjbkjbnkjvjh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jbhvhjbgku</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -390,19 +398,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="13.88671875" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" customWidth="1"/>
+    <col min="2" max="2" width="13.875" customWidth="1"/>
+    <col min="4" max="4" width="14.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -428,7 +436,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>3</v>
       </c>
@@ -442,7 +450,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>23123</v>
       </c>
@@ -454,6 +462,16 @@
       </c>
       <c r="D4">
         <v>2312</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
